--- a/Robotics1Code/Final Project/BumblebeeCircles.xlsx
+++ b/Robotics1Code/Final Project/BumblebeeCircles.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Robotics1Code/Final Project/BumblebeeCircles.xlsx
+++ b/Robotics1Code/Final Project/BumblebeeCircles.xlsx
@@ -90,6 +90,33 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
@@ -148,11 +175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40424512"/>
-        <c:axId val="40423936"/>
+        <c:axId val="77076672"/>
+        <c:axId val="77077248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40424512"/>
+        <c:axId val="77076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -162,12 +189,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40423936"/>
+        <c:crossAx val="77077248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40423936"/>
+        <c:axId val="77077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -178,7 +205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40424512"/>
+        <c:crossAx val="77076672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -228,6 +255,35 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14609776902887139"/>
+                  <c:y val="5.5931758530183728E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1028604549431321"/>
+                  <c:y val="0.27699475065616791"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$1:$K$5</c:f>
@@ -286,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="36203904"/>
-        <c:axId val="36203328"/>
+        <c:axId val="79069760"/>
+        <c:axId val="79070336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36203904"/>
+        <c:axId val="79069760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,12 +356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36203328"/>
+        <c:crossAx val="79070336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36203328"/>
+        <c:axId val="79070336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36203904"/>
+        <c:crossAx val="79069760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -693,7 +749,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
